--- a/Data Files/TestDataSanity.xlsx
+++ b/Data Files/TestDataSanity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\katalon\AccessKRE\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohinis\Documents\GitHub\AccessKRE\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D6BCA0-6F3F-4E51-9AF3-4A7FA809A889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C4C7E-467F-439F-AE6B-113C44F96459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="954" firstSheet="1" activeTab="1" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="954" firstSheet="1" activeTab="4" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="26" r:id="rId1"/>
@@ -921,9 +921,6 @@
     <t>https://localhost:5243/pas</t>
   </si>
   <si>
-    <t>pbsadmin</t>
-  </si>
-  <si>
     <t>/stage/$USER</t>
   </si>
   <si>
@@ -973,6 +970,9 @@
   </si>
   <si>
     <t>Run</t>
+  </si>
+  <si>
+    <t>david</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +2898,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2955,18 +2955,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" t="s">
         <v>302</v>
-      </c>
-      <c r="C5" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" t="s">
         <v>304</v>
-      </c>
-      <c r="C6" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3012,7 +3012,7 @@
         <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1" t="s">
         <v>174</v>
@@ -3023,13 +3023,13 @@
         <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
         <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3037,13 +3037,13 @@
         <v>245</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
         <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3051,13 +3051,13 @@
         <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
         <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3065,7 +3065,7 @@
         <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
         <v>244</v>
@@ -3079,13 +3079,13 @@
         <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
         <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
         <v>251</v>
@@ -3096,7 +3096,7 @@
         <v>249</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
         <v>244</v>
@@ -3475,8 +3475,8 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3528,22 +3528,22 @@
         <v>287</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>286</v>
@@ -3552,22 +3552,22 @@
         <v>287</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>286</v>
@@ -3577,7 +3577,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H4" s="16"/>
     </row>
